--- a/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
+++ b/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
@@ -349,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY24" sqref="AY24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,81 +445,31 @@
       <c r="Y1" s="1">
         <v>0.95833333333333304</v>
       </c>
-      <c r="AA1" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="10">
-        <v>2</v>
-      </c>
-      <c r="AC1" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="10">
-        <v>4</v>
-      </c>
-      <c r="AE1" s="10">
-        <v>5</v>
-      </c>
-      <c r="AF1" s="10">
-        <v>6</v>
-      </c>
-      <c r="AG1" s="10">
-        <v>7</v>
-      </c>
-      <c r="AH1" s="10">
-        <v>8</v>
-      </c>
-      <c r="AI1" s="10">
-        <v>9</v>
-      </c>
-      <c r="AJ1" s="10">
-        <v>10</v>
-      </c>
-      <c r="AK1" s="10">
-        <v>11</v>
-      </c>
-      <c r="AL1" s="10">
-        <v>12</v>
-      </c>
-      <c r="AM1" s="10">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="10">
-        <v>14</v>
-      </c>
-      <c r="AO1" s="10">
-        <v>15</v>
-      </c>
-      <c r="AP1" s="10">
-        <v>16</v>
-      </c>
-      <c r="AQ1" s="10">
-        <v>17</v>
-      </c>
-      <c r="AR1" s="10">
-        <v>18</v>
-      </c>
-      <c r="AS1" s="10">
-        <v>19</v>
-      </c>
-      <c r="AT1" s="10">
-        <v>20</v>
-      </c>
-      <c r="AU1" s="10">
-        <v>21</v>
-      </c>
-      <c r="AV1" s="10">
-        <v>22</v>
-      </c>
-      <c r="AW1" s="10">
-        <v>23</v>
-      </c>
-      <c r="AX1" s="10">
-        <v>904</v>
-      </c>
-      <c r="AY1" s="10">
-        <v>525</v>
-      </c>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
     </row>
     <row r="2" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -598,78 +548,37 @@
         <v>19.899999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <v>13.9</v>
+        <f>MAX(B2:Y92)</f>
+        <v>22.4</v>
       </c>
       <c r="AB2" s="3">
-        <v>13.5</v>
+        <f>LARGE(B2:Y92,2)</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="AC2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>14</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AX2">
-        <f>COUNTIF(AA2:AW2,"&gt;9")</f>
-        <v>23</v>
-      </c>
+        <f>AA2-AB2</f>
+        <v>2.5</v>
+      </c>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
     </row>
     <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -747,79 +656,29 @@
       <c r="Y3" s="3">
         <v>19.3</v>
       </c>
-      <c r="AA3" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AI3" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AJ3" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AK3" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AM3" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AN3" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AP3" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AQ3" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AR3" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AS3" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AV3" s="3">
-        <v>14</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AX3">
-        <f t="shared" ref="AX3:AX49" si="0">COUNTIF(AA3:AW3,"&gt;9")</f>
-        <v>23</v>
-      </c>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
     </row>
     <row r="4" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -897,79 +756,29 @@
       <c r="Y4" s="3">
         <v>19</v>
       </c>
-      <c r="AA4" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>13.9</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AJ4" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>13</v>
-      </c>
-      <c r="AX4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
     </row>
     <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -1047,79 +856,29 @@
       <c r="Y5" s="3">
         <v>18.7</v>
       </c>
-      <c r="AA5" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>13</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AI5" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AJ5" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AM5" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AN5" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AO5" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AP5" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AQ5" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AS5" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AT5" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AU5" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AV5" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AW5" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
     </row>
     <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1197,79 +956,29 @@
       <c r="Y6" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="AA6" s="3">
-        <v>13</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AC6" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>12</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>13.8</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AX6">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="3"/>
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="3"/>
+      <c r="AW6" s="3"/>
     </row>
     <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -1347,79 +1056,29 @@
       <c r="Y7" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="AA7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>13.6</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AJ7" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AL7" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AM7" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AN7" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AO7" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AP7" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AQ7" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>13</v>
-      </c>
-      <c r="AS7" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AT7" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AV7" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="AW7" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AX7">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
     </row>
     <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1497,79 +1156,29 @@
       <c r="Y8" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="AA8" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>13.4</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>13.1</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AJ8" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AM8" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AN8" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AO8" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AP8" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AQ8" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AS8" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AT8" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AU8" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AV8" s="3">
-        <v>13.3</v>
-      </c>
-      <c r="AW8" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AX8">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" s="3"/>
+      <c r="AS8" s="3"/>
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AV8" s="3"/>
+      <c r="AW8" s="3"/>
     </row>
     <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1647,79 +1256,29 @@
       <c r="Y9" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="AA9" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AE9" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AI9" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AJ9" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AK9" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AL9" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AM9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN9" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AO9" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AP9" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AQ9" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AR9" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AS9" s="3">
-        <v>12</v>
-      </c>
-      <c r="AT9" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AU9" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AV9" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AW9" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AX9">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AR9" s="3"/>
+      <c r="AS9" s="3"/>
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AV9" s="3"/>
+      <c r="AW9" s="3"/>
     </row>
     <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1797,79 +1356,29 @@
       <c r="Y10" s="3">
         <v>17.7</v>
       </c>
-      <c r="AA10" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AE10" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AI10" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AK10" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AL10" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AM10" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AO10" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AP10" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AQ10" s="3">
-        <v>12</v>
-      </c>
-      <c r="AR10" s="3">
-        <v>12</v>
-      </c>
-      <c r="AS10" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AT10" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AU10" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AV10" s="3">
-        <v>13.2</v>
-      </c>
-      <c r="AW10" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AX10">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="3"/>
+      <c r="AS10" s="3"/>
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AV10" s="3"/>
+      <c r="AW10" s="3"/>
     </row>
     <row r="11" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1947,79 +1456,29 @@
       <c r="Y11" s="3">
         <v>17.7</v>
       </c>
-      <c r="AA11" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AE11" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AI11" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="AJ11" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AM11" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN11" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AO11" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AP11" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AQ11" s="3">
-        <v>12</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AS11" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AT11" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AU11" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AV11" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AX11">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" s="3"/>
+      <c r="AS11" s="3"/>
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AV11" s="3"/>
+      <c r="AW11" s="3"/>
     </row>
     <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2097,79 +1556,29 @@
       <c r="Y12" s="3">
         <v>17.3</v>
       </c>
-      <c r="AA12" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>13</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>12</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>11</v>
-      </c>
-      <c r="AO12" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AP12" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AQ12" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AR12" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AS12" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AU12" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AV12" s="3">
-        <v>12.8</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" s="3"/>
+      <c r="AS12" s="3"/>
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AV12" s="3"/>
+      <c r="AW12" s="3"/>
     </row>
     <row r="13" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2247,79 +1656,29 @@
       <c r="Y13" s="3">
         <v>17.2</v>
       </c>
-      <c r="AA13" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>12.9</v>
-      </c>
-      <c r="AD13" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AE13" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>11</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AI13" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AJ13" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AM13" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AN13" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AO13" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AP13" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AQ13" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AR13" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AS13" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AU13" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AV13" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="3"/>
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3"/>
+      <c r="AO13" s="3"/>
+      <c r="AP13" s="3"/>
+      <c r="AQ13" s="3"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AT13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
     </row>
     <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2397,79 +1756,29 @@
       <c r="Y14" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="AA14" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AC14" s="3">
-        <v>12.7</v>
-      </c>
-      <c r="AD14" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AE14" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AI14" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AJ14" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AL14" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AM14" s="3">
-        <v>11</v>
-      </c>
-      <c r="AN14" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AO14" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AP14" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AQ14" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AS14" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AT14" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AU14" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AV14" s="3">
-        <v>12.6</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
     </row>
     <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2547,79 +1856,29 @@
       <c r="Y15" s="3">
         <v>16.7</v>
       </c>
-      <c r="AA15" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AE15" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AI15" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AJ15" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AK15" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AM15" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AO15" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AP15" s="3">
-        <v>12</v>
-      </c>
-      <c r="AQ15" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AR15" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AS15" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AT15" s="3">
-        <v>11</v>
-      </c>
-      <c r="AU15" s="3">
-        <v>10</v>
-      </c>
-      <c r="AV15" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
+      <c r="AL15" s="3"/>
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3"/>
+      <c r="AO15" s="3"/>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
     </row>
     <row r="16" spans="1:51" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2697,81 +1956,31 @@
       <c r="Y16" s="3">
         <v>16.7</v>
       </c>
-      <c r="AA16" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AV16" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>11</v>
-      </c>
-      <c r="AX16">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
+      <c r="AL16" s="3"/>
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3"/>
+      <c r="AO16" s="3"/>
+      <c r="AP16" s="3"/>
+      <c r="AQ16" s="3"/>
+      <c r="AR16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+    </row>
+    <row r="17" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43918</v>
       </c>
@@ -2847,81 +2056,31 @@
       <c r="Y17" s="3">
         <v>16.600000000000001</v>
       </c>
-      <c r="AA17" s="3">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>12.2</v>
-      </c>
-      <c r="AD17" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AE17" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AG17" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AH17" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AI17" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AJ17" s="3">
-        <v>9</v>
-      </c>
-      <c r="AK17" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AM17" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AN17" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AO17" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AP17" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AQ17" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AR17" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AS17" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AT17" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AU17" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AV17" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AX17">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+    </row>
+    <row r="18" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43832</v>
       </c>
@@ -2997,81 +2156,31 @@
       <c r="Y18" s="3">
         <v>16.2</v>
       </c>
-      <c r="AA18" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>11.9</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AE18" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AF18" s="3">
-        <v>11.2</v>
-      </c>
-      <c r="AG18" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AH18" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AI18" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AJ18" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AL18" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AM18" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AN18" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AO18" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AQ18" s="3">
-        <v>11</v>
-      </c>
-      <c r="AR18" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AS18" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AU18" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AV18" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AW18" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AX18">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+    </row>
+    <row r="19" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43845</v>
       </c>
@@ -3147,81 +2256,31 @@
       <c r="Y19" s="3">
         <v>15.7</v>
       </c>
-      <c r="AA19" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>11.8</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AE19" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AF19" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AG19" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AH19" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AI19" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AJ19" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AM19" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AN19" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AO19" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="AQ19" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AR19" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AS19" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AU19" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AV19" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AX19">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+    </row>
+    <row r="20" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -3297,81 +2356,31 @@
       <c r="Y20" s="3">
         <v>15.6</v>
       </c>
-      <c r="AA20" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AD20" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>8</v>
-      </c>
-      <c r="AF20" s="3">
-        <v>11</v>
-      </c>
-      <c r="AG20" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AH20" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AI20" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AJ20" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AK20" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AM20" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AN20" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AO20" s="3">
-        <v>10</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AQ20" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AS20" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AT20" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AU20" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AV20" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AX20">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+    </row>
+    <row r="21" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43895</v>
       </c>
@@ -3447,81 +2456,31 @@
       <c r="Y21" s="3">
         <v>15.6</v>
       </c>
-      <c r="AA21" s="3">
-        <v>10</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>11.7</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AG21" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AH21" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AI21" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AJ21" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AK21" s="3">
-        <v>10</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>9</v>
-      </c>
-      <c r="AM21" s="3">
-        <v>10</v>
-      </c>
-      <c r="AN21" s="3">
-        <v>9</v>
-      </c>
-      <c r="AO21" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>11.1</v>
-      </c>
-      <c r="AQ21" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AR21" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AS21" s="3">
-        <v>10</v>
-      </c>
-      <c r="AT21" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AU21" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AV21" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AW21" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AX21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+    </row>
+    <row r="22" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43917</v>
       </c>
@@ -3597,81 +2556,31 @@
       <c r="Y22" s="3">
         <v>15.2</v>
       </c>
-      <c r="AA22" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>11.6</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>9</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>11.4</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AM22" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AN22" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AO22" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>10.9</v>
-      </c>
-      <c r="AQ22" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AR22" s="3">
-        <v>10</v>
-      </c>
-      <c r="AS22" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AT22" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AU22" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AV22" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AW22" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AX22">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+    </row>
+    <row r="23" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43894</v>
       </c>
@@ -3747,81 +2656,31 @@
       <c r="Y23" s="3">
         <v>15.2</v>
       </c>
-      <c r="AA23" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>11.3</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>7</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>9</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>11</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AL23" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AM23" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AN23" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AO23" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AQ23" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AR23" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AS23" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AT23" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AU23" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AV23" s="3">
-        <v>10</v>
-      </c>
-      <c r="AW23" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AX23">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+    </row>
+    <row r="24" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43839</v>
       </c>
@@ -3897,81 +2756,31 @@
       <c r="Y24" s="3">
         <v>14.6</v>
       </c>
-      <c r="AA24" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>10.8</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>10</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>11</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>9</v>
-      </c>
-      <c r="AL24" s="3">
-        <v>8</v>
-      </c>
-      <c r="AM24" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AN24" s="3">
-        <v>8</v>
-      </c>
-      <c r="AO24" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="AQ24" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AR24" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AS24" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AT24" s="3">
-        <v>9</v>
-      </c>
-      <c r="AU24" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AV24" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AW24" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AX24">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+    </row>
+    <row r="25" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43875</v>
       </c>
@@ -4047,81 +2856,31 @@
       <c r="Y25" s="3">
         <v>13.8</v>
       </c>
-      <c r="AA25" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AL25" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AM25" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AN25" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AO25" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AR25" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AS25" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AT25" s="3">
-        <v>9</v>
-      </c>
-      <c r="AU25" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AV25" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AW25" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AX25">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+    </row>
+    <row r="26" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43913</v>
       </c>
@@ -4197,81 +2956,31 @@
       <c r="Y26" s="3">
         <v>13.3</v>
       </c>
-      <c r="AA26" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AL26" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AM26" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AN26" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AP26" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AQ26" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AR26" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AS26" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AT26" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AU26" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AV26" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AW26" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AX26">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+    </row>
+    <row r="27" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43856</v>
       </c>
@@ -4347,81 +3056,31 @@
       <c r="Y27" s="3">
         <v>13</v>
       </c>
-      <c r="AA27" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>10.3</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>8</v>
-      </c>
-      <c r="AL27" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AM27" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AN27" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AO27" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AP27" s="3">
-        <v>9.9</v>
-      </c>
-      <c r="AQ27" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AR27" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AS27" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AT27" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AU27" s="3">
-        <v>8</v>
-      </c>
-      <c r="AV27" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AW27" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AX27">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+    </row>
+    <row r="28" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43903</v>
       </c>
@@ -4497,81 +3156,31 @@
       <c r="Y28" s="3">
         <v>12.9</v>
       </c>
-      <c r="AA28" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>8</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>9.6</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>8</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>10.1</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AQ28" s="3">
-        <v>8</v>
-      </c>
-      <c r="AR28" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AS28" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AT28" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AU28" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AV28" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AW28" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AX28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+    </row>
+    <row r="29" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43864</v>
       </c>
@@ -4647,81 +3256,31 @@
       <c r="Y29" s="3">
         <v>12.9</v>
       </c>
-      <c r="AA29" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>8</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>9.5</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AL29" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM29" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AN29" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AP29" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AQ29" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AR29" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AS29" s="3">
-        <v>8</v>
-      </c>
-      <c r="AT29" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AU29" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AV29" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AW29" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AX29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3"/>
+      <c r="AO29" s="3"/>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" s="3"/>
+      <c r="AS29" s="3"/>
+      <c r="AT29" s="3"/>
+      <c r="AU29" s="3"/>
+      <c r="AV29" s="3"/>
+      <c r="AW29" s="3"/>
+    </row>
+    <row r="30" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43852</v>
       </c>
@@ -4797,81 +3356,31 @@
       <c r="Y30" s="3">
         <v>12.9</v>
       </c>
-      <c r="AA30" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AO30" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="AQ30" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AR30" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AS30" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AT30" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AU30" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AV30" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AW30" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AX30">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+    </row>
+    <row r="31" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43841</v>
       </c>
@@ -4947,78 +3456,30 @@
       <c r="Y31" s="3">
         <v>12.8</v>
       </c>
-      <c r="AA31" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AC31" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AD31" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>9.1</v>
-      </c>
-      <c r="AG31" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AH31" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AI31" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AJ31" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AK31" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AL31" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AM31" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AN31" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AO31" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AP31" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="AQ31" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AR31" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AS31" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AT31" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AU31" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AV31" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AW31" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AX31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" ht="15" x14ac:dyDescent="0.25">
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" s="3"/>
+      <c r="AS31" s="3"/>
+      <c r="AT31" s="3"/>
+      <c r="AU31" s="3"/>
+      <c r="AV31" s="3"/>
+      <c r="AW31" s="3"/>
+    </row>
+    <row r="32" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43849</v>
       </c>
@@ -5094,78 +3555,30 @@
       <c r="Y32" s="3">
         <v>12.8</v>
       </c>
-      <c r="AA32" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="AG32" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AI32" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AJ32" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AM32" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AN32" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AO32" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AP32" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AQ32" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AR32" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AS32" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AT32" s="3">
-        <v>8</v>
-      </c>
-      <c r="AU32" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AV32" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AW32" s="3">
-        <v>8</v>
-      </c>
-      <c r="AX32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3"/>
+      <c r="AO32" s="3"/>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" s="3"/>
+      <c r="AS32" s="3"/>
+      <c r="AT32" s="3"/>
+      <c r="AU32" s="3"/>
+      <c r="AV32" s="3"/>
+      <c r="AW32" s="3"/>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43909</v>
       </c>
@@ -5241,78 +3654,30 @@
       <c r="Y33" s="3">
         <v>12.5</v>
       </c>
-      <c r="AA33" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AF33" s="3">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AG33" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AH33" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AI33" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AJ33" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AK33" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AL33" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AM33" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AN33" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AO33" s="3">
-        <v>8</v>
-      </c>
-      <c r="AP33" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AQ33" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AR33" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AS33" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AT33" s="3">
-        <v>8</v>
-      </c>
-      <c r="AU33" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AV33" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AW33" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AX33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" s="3"/>
+      <c r="AS33" s="3"/>
+      <c r="AT33" s="3"/>
+      <c r="AU33" s="3"/>
+      <c r="AV33" s="3"/>
+      <c r="AW33" s="3"/>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43891</v>
       </c>
@@ -5388,78 +3753,30 @@
       <c r="Y34" s="3">
         <v>12.4</v>
       </c>
-      <c r="AA34" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AD34" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AG34" s="3">
-        <v>7</v>
-      </c>
-      <c r="AH34" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AI34" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="AJ34" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AK34" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AL34" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AM34" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AN34" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AO34" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AP34" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AQ34" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AR34" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AS34" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AT34" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AU34" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AV34" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AW34" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AX34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3"/>
+      <c r="AI34" s="3"/>
+      <c r="AJ34" s="3"/>
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="3"/>
+      <c r="AP34" s="3"/>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" s="3"/>
+      <c r="AS34" s="3"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="3"/>
+      <c r="AW34" s="3"/>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43899</v>
       </c>
@@ -5535,75 +3852,29 @@
       <c r="Y35" s="3">
         <v>12.4</v>
       </c>
-      <c r="AA35" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="AG35" s="3">
-        <v>7</v>
-      </c>
-      <c r="AH35" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AJ35" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AK35" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AM35" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AN35" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AO35" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AP35" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AQ35" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AR35" s="3">
-        <v>8.1</v>
-      </c>
-      <c r="AS35" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AT35" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AU35" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AV35" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AW35" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AX35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+      <c r="AK35" s="3"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" s="3"/>
+      <c r="AS35" s="3"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="3"/>
+      <c r="AW35" s="3"/>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43858</v>
       </c>
@@ -5679,69 +3950,27 @@
       <c r="Y36" s="3">
         <v>11.7</v>
       </c>
-      <c r="AA36" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>8</v>
-      </c>
-      <c r="AD36" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AF36" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AG36" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AH36" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AK36" s="3">
-        <v>7</v>
-      </c>
-      <c r="AM36" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AO36" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AP36" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AQ36" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AR36" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AS36" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AT36" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AU36" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AV36" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AW36" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AX36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3"/>
+      <c r="AI36" s="3"/>
+      <c r="AK36" s="3"/>
+      <c r="AM36" s="3"/>
+      <c r="AO36" s="3"/>
+      <c r="AP36" s="3"/>
+      <c r="AQ36" s="3"/>
+      <c r="AR36" s="3"/>
+      <c r="AS36" s="3"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="3"/>
+      <c r="AW36" s="3"/>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43850</v>
       </c>
@@ -5817,66 +4046,26 @@
       <c r="Y37" s="3">
         <v>11.5</v>
       </c>
-      <c r="AA37" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AD37" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AF37" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="AG37" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AH37" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AI37" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="AK37" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AM37" s="3">
-        <v>7</v>
-      </c>
-      <c r="AO37" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AP37" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AQ37" s="3">
-        <v>6</v>
-      </c>
-      <c r="AR37" s="3">
-        <v>7.6</v>
-      </c>
-      <c r="AS37" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AT37" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AU37" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AW37" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AX37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AK37" s="3"/>
+      <c r="AM37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AW37" s="3"/>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43884</v>
       </c>
@@ -5952,63 +4141,25 @@
       <c r="Y38" s="3">
         <v>11.2</v>
       </c>
-      <c r="AA38" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AC38" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AD38" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>8</v>
-      </c>
-      <c r="AG38" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AI38" s="3">
-        <v>8</v>
-      </c>
-      <c r="AK38" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AM38" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AO38" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AP38" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AR38" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AS38" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AT38" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AU38" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AW38" s="3">
-        <v>7</v>
-      </c>
-      <c r="AX38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3"/>
+      <c r="AI38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AM38" s="3"/>
+      <c r="AO38" s="3"/>
+      <c r="AP38" s="3"/>
+      <c r="AR38" s="3"/>
+      <c r="AS38" s="3"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AW38" s="3"/>
+    </row>
+    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43885</v>
       </c>
@@ -6084,51 +4235,21 @@
       <c r="Y39" s="3">
         <v>11</v>
       </c>
-      <c r="AA39" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="AD39" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="AF39" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AI39" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="AK39" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AM39" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AO39" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AR39" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AT39" s="3">
-        <v>6</v>
-      </c>
-      <c r="AU39" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AW39" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AX39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AK39" s="3"/>
+      <c r="AM39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AW39" s="3"/>
+    </row>
+    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43833</v>
       </c>
@@ -6204,45 +4325,19 @@
       <c r="Y40" s="3">
         <v>10.8</v>
       </c>
-      <c r="AA40" s="3">
-        <v>7</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>6</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AD40" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AF40" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="AI40" s="3">
-        <v>7.7</v>
-      </c>
-      <c r="AK40" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AO40" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AR40" s="3">
-        <v>7</v>
-      </c>
-      <c r="AU40" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AW40" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AX40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AI40" s="3"/>
+      <c r="AK40" s="3"/>
+      <c r="AO40" s="3"/>
+      <c r="AR40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AW40" s="3"/>
+    </row>
+    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43865</v>
       </c>
@@ -6318,42 +4413,18 @@
       <c r="Y41" s="3">
         <v>10.7</v>
       </c>
-      <c r="AA41" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>6.7</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AR41" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AU41" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AW41" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AX41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AW41" s="3"/>
+    </row>
+    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43859</v>
       </c>
@@ -6429,42 +4500,18 @@
       <c r="Y42" s="3">
         <v>10.6</v>
       </c>
-      <c r="AA42" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="AK42" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AO42" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AR42" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="AU42" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AW42" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AX42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AW42" s="3"/>
+    </row>
+    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43835</v>
       </c>
@@ -6540,42 +4587,18 @@
       <c r="Y43" s="3">
         <v>10.4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AI43" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AK43" s="3">
-        <v>6</v>
-      </c>
-      <c r="AO43" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AR43" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AU43" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AW43" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AX43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AF43" s="3"/>
+      <c r="AI43" s="3"/>
+      <c r="AK43" s="3"/>
+      <c r="AO43" s="3"/>
+      <c r="AR43" s="3"/>
+      <c r="AU43" s="3"/>
+      <c r="AW43" s="3"/>
+    </row>
+    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43869</v>
       </c>
@@ -6651,27 +4674,13 @@
       <c r="Y44" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="AA44" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AF44" s="3">
-        <v>6.9</v>
-      </c>
-      <c r="AI44" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AW44" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AX44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AF44" s="3"/>
+      <c r="AI44" s="3"/>
+      <c r="AW44" s="3"/>
+    </row>
+    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43911</v>
       </c>
@@ -6747,27 +4756,13 @@
       <c r="Y45" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="AA45" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>6</v>
-      </c>
-      <c r="AF45" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="AI45" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AW45" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="AX45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AA45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AW45" s="3"/>
+    </row>
+    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43857</v>
       </c>
@@ -6843,21 +4838,11 @@
       <c r="Y46" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AF46" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="AI46" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AW46" s="3">
-        <v>6</v>
-      </c>
-      <c r="AX46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AF46" s="3"/>
+      <c r="AI46" s="3"/>
+      <c r="AW46" s="3"/>
+    </row>
+    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43860</v>
       </c>
@@ -6933,21 +4918,11 @@
       <c r="Y47" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AF47" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AI47" s="3">
-        <v>6.4</v>
-      </c>
-      <c r="AW47" s="3">
-        <v>6</v>
-      </c>
-      <c r="AX47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AF47" s="3"/>
+      <c r="AI47" s="3"/>
+      <c r="AW47" s="3"/>
+    </row>
+    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43921</v>
       </c>
@@ -7023,18 +4998,10 @@
       <c r="Y48" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AF48" s="3">
-        <v>6.3</v>
-      </c>
-      <c r="AI48" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="AX48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AF48" s="3"/>
+      <c r="AI48" s="3"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43836</v>
       </c>
@@ -7110,18 +5077,10 @@
       <c r="Y49" s="3">
         <v>9.1</v>
       </c>
-      <c r="AF49" s="3">
-        <v>6</v>
-      </c>
-      <c r="AI49" s="3">
-        <v>6</v>
-      </c>
-      <c r="AX49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="AF49" s="3"/>
+      <c r="AI49" s="3"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43887</v>
       </c>
@@ -7198,7 +5157,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43871</v>
       </c>
@@ -7275,7 +5234,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43855</v>
       </c>
@@ -7352,7 +5311,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43876</v>
       </c>
@@ -7429,7 +5388,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43915</v>
       </c>
@@ -7506,7 +5465,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43853</v>
       </c>
@@ -7583,7 +5542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43867</v>
       </c>
@@ -7660,7 +5619,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="57" spans="1:50" ht="15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43831</v>
       </c>
@@ -7737,7 +5696,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="58" spans="1:50" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43862</v>
       </c>
@@ -7814,7 +5773,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43866</v>
       </c>
@@ -7891,7 +5850,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43886</v>
       </c>
@@ -7968,7 +5927,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="61" spans="1:50" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43877</v>
       </c>
@@ -8045,7 +6004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:50" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43881</v>
       </c>
@@ -8122,7 +6081,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43868</v>
       </c>
@@ -8199,7 +6158,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="64" spans="1:50" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43882</v>
       </c>
@@ -8276,7 +6235,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43904</v>
       </c>
@@ -8430,7 +6389,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43912</v>
       </c>
@@ -8584,7 +6543,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43889</v>
       </c>
@@ -8738,7 +6697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43880</v>
       </c>
@@ -8815,7 +6774,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43838</v>
       </c>
@@ -8892,7 +6851,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43919</v>
       </c>
@@ -8969,7 +6928,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43893</v>
       </c>
@@ -9046,7 +7005,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43901</v>
       </c>
@@ -9123,7 +7082,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43870</v>
       </c>
@@ -9277,7 +7236,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43846</v>
       </c>
@@ -9354,7 +7313,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43888</v>
       </c>
@@ -9431,7 +7390,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43844</v>
       </c>
@@ -9508,7 +7467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43872</v>
       </c>
@@ -9585,7 +7544,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -9662,7 +7621,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43916</v>
       </c>
@@ -9739,7 +7698,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43906</v>
       </c>
@@ -9816,7 +7775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43902</v>
       </c>
@@ -9893,7 +7852,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43847</v>
       </c>
@@ -10047,7 +8006,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43914</v>
       </c>
@@ -10124,7 +8083,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43879</v>
       </c>
@@ -10201,7 +8160,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43896</v>
       </c>
@@ -10278,7 +8237,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43854</v>
       </c>
@@ -10355,7 +8314,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43905</v>
       </c>
@@ -13209,11 +11168,6 @@
       <c r="AB186" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y92">
-    <sortState ref="A2:Y92">
-      <sortCondition descending="1" ref="Y1:Y92"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
+++ b/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
@@ -349,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -360,19 +360,19 @@
   <dimension ref="A1:AY186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="4.88671875" customWidth="1"/>
-    <col min="17" max="25" width="5.88671875" customWidth="1"/>
-    <col min="26" max="26" width="8.44140625" customWidth="1"/>
-    <col min="27" max="42" width="5.33203125" customWidth="1"/>
+    <col min="1" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="25" width="5.85546875" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" customWidth="1"/>
+    <col min="27" max="42" width="5.28515625" customWidth="1"/>
     <col min="43" max="49" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -471,7 +471,7 @@
       <c r="AX1" s="10"/>
       <c r="AY1" s="10"/>
     </row>
-    <row r="2" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43843</v>
       </c>
@@ -548,16 +548,16 @@
         <v>19.899999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <f>MAX(B2:Y92)</f>
-        <v>22.4</v>
+        <f>MIN(B2:Y92)</f>
+        <v>0.3</v>
       </c>
       <c r="AB2" s="3">
-        <f>LARGE(B2:Y92,2)</f>
-        <v>19.899999999999999</v>
+        <f>SMALL(B2:Y92,2)</f>
+        <v>1</v>
       </c>
       <c r="AC2" s="3">
         <f>AA2-AB2</f>
-        <v>2.5</v>
+        <v>-0.7</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -580,7 +580,7 @@
       <c r="AV2" s="3"/>
       <c r="AW2" s="3"/>
     </row>
-    <row r="3" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43851</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="AV3" s="3"/>
       <c r="AW3" s="3"/>
     </row>
-    <row r="4" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43883</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
     </row>
-    <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43890</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="AV5" s="3"/>
       <c r="AW5" s="3"/>
     </row>
-    <row r="6" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43848</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="AV6" s="3"/>
       <c r="AW6" s="3"/>
     </row>
-    <row r="7" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43840</v>
       </c>
@@ -1080,7 +1080,7 @@
       <c r="AV7" s="3"/>
       <c r="AW7" s="3"/>
     </row>
-    <row r="8" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43878</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="AV8" s="3"/>
       <c r="AW8" s="3"/>
     </row>
-    <row r="9" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43892</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="AV9" s="3"/>
       <c r="AW9" s="3"/>
     </row>
-    <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43834</v>
       </c>
@@ -1380,7 +1380,7 @@
       <c r="AV10" s="3"/>
       <c r="AW10" s="3"/>
     </row>
-    <row r="11" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43907</v>
       </c>
@@ -1480,7 +1480,7 @@
       <c r="AV11" s="3"/>
       <c r="AW11" s="3"/>
     </row>
-    <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43863</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="AV12" s="3"/>
       <c r="AW12" s="3"/>
     </row>
-    <row r="13" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43837</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="AV13" s="3"/>
       <c r="AW13" s="3"/>
     </row>
-    <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43861</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="AV14" s="3"/>
       <c r="AW14" s="3"/>
     </row>
-    <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43908</v>
       </c>
@@ -1880,7 +1880,7 @@
       <c r="AV15" s="3"/>
       <c r="AW15" s="3"/>
     </row>
-    <row r="16" spans="1:51" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43898</v>
       </c>
@@ -1980,7 +1980,7 @@
       <c r="AV16" s="3"/>
       <c r="AW16" s="3"/>
     </row>
-    <row r="17" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43918</v>
       </c>
@@ -2080,7 +2080,7 @@
       <c r="AV17" s="3"/>
       <c r="AW17" s="3"/>
     </row>
-    <row r="18" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43832</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="AV18" s="3"/>
       <c r="AW18" s="3"/>
     </row>
-    <row r="19" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43845</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="AV19" s="3"/>
       <c r="AW19" s="3"/>
     </row>
-    <row r="20" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="AV20" s="3"/>
       <c r="AW20" s="3"/>
     </row>
-    <row r="21" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43895</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="AV21" s="3"/>
       <c r="AW21" s="3"/>
     </row>
-    <row r="22" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43917</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="AV22" s="3"/>
       <c r="AW22" s="3"/>
     </row>
-    <row r="23" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43894</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="AV23" s="3"/>
       <c r="AW23" s="3"/>
     </row>
-    <row r="24" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43839</v>
       </c>
@@ -2780,7 +2780,7 @@
       <c r="AV24" s="3"/>
       <c r="AW24" s="3"/>
     </row>
-    <row r="25" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43875</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="AV25" s="3"/>
       <c r="AW25" s="3"/>
     </row>
-    <row r="26" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43913</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="AV26" s="3"/>
       <c r="AW26" s="3"/>
     </row>
-    <row r="27" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43856</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="AV27" s="3"/>
       <c r="AW27" s="3"/>
     </row>
-    <row r="28" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43903</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="AV28" s="3"/>
       <c r="AW28" s="3"/>
     </row>
-    <row r="29" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43864</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="AV29" s="3"/>
       <c r="AW29" s="3"/>
     </row>
-    <row r="30" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43852</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="AV30" s="3"/>
       <c r="AW30" s="3"/>
     </row>
-    <row r="31" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43841</v>
       </c>
@@ -3479,7 +3479,7 @@
       <c r="AV31" s="3"/>
       <c r="AW31" s="3"/>
     </row>
-    <row r="32" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43849</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="AV32" s="3"/>
       <c r="AW32" s="3"/>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43909</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="AV33" s="3"/>
       <c r="AW33" s="3"/>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43891</v>
       </c>
@@ -3776,7 +3776,7 @@
       <c r="AV34" s="3"/>
       <c r="AW34" s="3"/>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43899</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="AV35" s="3"/>
       <c r="AW35" s="3"/>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43858</v>
       </c>
@@ -3970,7 +3970,7 @@
       <c r="AV36" s="3"/>
       <c r="AW36" s="3"/>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43850</v>
       </c>
@@ -4065,7 +4065,7 @@
       <c r="AU37" s="3"/>
       <c r="AW37" s="3"/>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43884</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="AU38" s="3"/>
       <c r="AW38" s="3"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43885</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="AU39" s="3"/>
       <c r="AW39" s="3"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43833</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="AU40" s="3"/>
       <c r="AW40" s="3"/>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43865</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="AU41" s="3"/>
       <c r="AW41" s="3"/>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43859</v>
       </c>
@@ -4511,7 +4511,7 @@
       <c r="AU42" s="3"/>
       <c r="AW42" s="3"/>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43835</v>
       </c>
@@ -4598,7 +4598,7 @@
       <c r="AU43" s="3"/>
       <c r="AW43" s="3"/>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43869</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="AI44" s="3"/>
       <c r="AW44" s="3"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43911</v>
       </c>
@@ -4762,7 +4762,7 @@
       <c r="AI45" s="3"/>
       <c r="AW45" s="3"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43857</v>
       </c>
@@ -4842,7 +4842,7 @@
       <c r="AI46" s="3"/>
       <c r="AW46" s="3"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43860</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="AI47" s="3"/>
       <c r="AW47" s="3"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:49" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43921</v>
       </c>
@@ -5001,7 +5001,7 @@
       <c r="AF48" s="3"/>
       <c r="AI48" s="3"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43836</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="AF49" s="3"/>
       <c r="AI49" s="3"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43887</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43871</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43855</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43876</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43915</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43853</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43867</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43831</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43862</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43866</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43886</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43877</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43881</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43868</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43882</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43904</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43900</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43912</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43920</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43889</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43874</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43880</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43838</v>
       </c>
@@ -6851,7 +6851,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43919</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43893</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43901</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43870</v>
       </c>
@@ -7159,7 +7159,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43897</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43846</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43888</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43844</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43872</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43910</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43916</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43906</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43902</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43847</v>
       </c>
@@ -7929,7 +7929,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43842</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43914</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43879</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43896</v>
       </c>
@@ -8237,7 +8237,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43854</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43905</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -8403,12 +8403,9 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="6">
-        <f ca="1">COUNTIF(B:B,B2:C11 &gt;6)</f>
-        <v>0</v>
-      </c>
+      <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -8437,7 +8434,7 @@
       <c r="AB95" s="8"/>
       <c r="AC95" s="8"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -8468,7 +8465,7 @@
       <c r="AB96" s="8"/>
       <c r="AC96" s="8"/>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -8499,7 +8496,7 @@
       <c r="AB97" s="8"/>
       <c r="AC97" s="8"/>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -8529,7 +8526,7 @@
       <c r="AA98" s="8"/>
       <c r="AB98" s="8"/>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -8558,7 +8555,7 @@
       <c r="AA99" s="8"/>
       <c r="AB99" s="8"/>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -8587,7 +8584,7 @@
       <c r="AA100" s="8"/>
       <c r="AB100" s="8"/>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -8617,7 +8614,7 @@
       <c r="AA101" s="8"/>
       <c r="AB101" s="8"/>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -8647,7 +8644,7 @@
       <c r="AA102" s="8"/>
       <c r="AB102" s="8"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -8677,7 +8674,7 @@
       <c r="AA103" s="8"/>
       <c r="AB103" s="8"/>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -8707,7 +8704,7 @@
       <c r="AA104" s="8"/>
       <c r="AB104" s="8"/>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -8737,7 +8734,7 @@
       <c r="AA105" s="8"/>
       <c r="AB105" s="8"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -8767,7 +8764,7 @@
       <c r="AA106" s="8"/>
       <c r="AB106" s="8"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -8797,7 +8794,7 @@
       <c r="AA107" s="8"/>
       <c r="AB107" s="8"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -8827,7 +8824,7 @@
       <c r="AA108" s="8"/>
       <c r="AB108" s="8"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -8857,7 +8854,7 @@
       <c r="AA109" s="8"/>
       <c r="AB109" s="8"/>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -8887,7 +8884,7 @@
       <c r="AA110" s="8"/>
       <c r="AB110" s="8"/>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -8917,7 +8914,7 @@
       <c r="AA111" s="8"/>
       <c r="AB111" s="8"/>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -8947,7 +8944,7 @@
       <c r="AA112" s="8"/>
       <c r="AB112" s="8"/>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -8977,7 +8974,7 @@
       <c r="AA113" s="8"/>
       <c r="AB113" s="8"/>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -9007,7 +9004,7 @@
       <c r="AA114" s="8"/>
       <c r="AB114" s="8"/>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -9037,7 +9034,7 @@
       <c r="AA115" s="8"/>
       <c r="AB115" s="8"/>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -9067,7 +9064,7 @@
       <c r="AA116" s="8"/>
       <c r="AB116" s="8"/>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -9097,7 +9094,7 @@
       <c r="AA117" s="8"/>
       <c r="AB117" s="8"/>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -9127,7 +9124,7 @@
       <c r="AA118" s="8"/>
       <c r="AB118" s="8"/>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -9157,7 +9154,7 @@
       <c r="AA119" s="8"/>
       <c r="AB119" s="8"/>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -9187,7 +9184,7 @@
       <c r="AA120" s="8"/>
       <c r="AB120" s="8"/>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -9217,7 +9214,7 @@
       <c r="AA121" s="8"/>
       <c r="AB121" s="8"/>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -9247,7 +9244,7 @@
       <c r="AA122" s="8"/>
       <c r="AB122" s="8"/>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -9277,7 +9274,7 @@
       <c r="AA123" s="8"/>
       <c r="AB123" s="8"/>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -9307,7 +9304,7 @@
       <c r="AA124" s="8"/>
       <c r="AB124" s="8"/>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -9337,7 +9334,7 @@
       <c r="AA125" s="8"/>
       <c r="AB125" s="8"/>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -9367,7 +9364,7 @@
       <c r="AA126" s="8"/>
       <c r="AB126" s="8"/>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -9397,7 +9394,7 @@
       <c r="AA127" s="8"/>
       <c r="AB127" s="8"/>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -9427,7 +9424,7 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="8"/>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -9457,7 +9454,7 @@
       <c r="AA129" s="8"/>
       <c r="AB129" s="8"/>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -9487,7 +9484,7 @@
       <c r="AA130" s="8"/>
       <c r="AB130" s="8"/>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -9517,7 +9514,7 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -9547,7 +9544,7 @@
       <c r="AA132" s="8"/>
       <c r="AB132" s="8"/>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -9577,7 +9574,7 @@
       <c r="AA133" s="8"/>
       <c r="AB133" s="8"/>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -9607,7 +9604,7 @@
       <c r="AA134" s="8"/>
       <c r="AB134" s="8"/>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -9637,7 +9634,7 @@
       <c r="AA135" s="8"/>
       <c r="AB135" s="8"/>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -9667,7 +9664,7 @@
       <c r="AA136" s="8"/>
       <c r="AB136" s="8"/>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -9697,7 +9694,7 @@
       <c r="AA137" s="8"/>
       <c r="AB137" s="8"/>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -9727,7 +9724,7 @@
       <c r="AA138" s="8"/>
       <c r="AB138" s="8"/>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -9757,7 +9754,7 @@
       <c r="AA139" s="8"/>
       <c r="AB139" s="8"/>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -9787,7 +9784,7 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="8"/>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -9817,7 +9814,7 @@
       <c r="AA141" s="8"/>
       <c r="AB141" s="8"/>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -9847,7 +9844,7 @@
       <c r="AA142" s="8"/>
       <c r="AB142" s="8"/>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -9877,7 +9874,7 @@
       <c r="AA143" s="8"/>
       <c r="AB143" s="8"/>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -9907,7 +9904,7 @@
       <c r="AA144" s="8"/>
       <c r="AB144" s="8"/>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -9937,7 +9934,7 @@
       <c r="AA145" s="8"/>
       <c r="AB145" s="8"/>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -9967,7 +9964,7 @@
       <c r="AA146" s="8"/>
       <c r="AB146" s="8"/>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -9997,7 +9994,7 @@
       <c r="AA147" s="8"/>
       <c r="AB147" s="8"/>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -10027,7 +10024,7 @@
       <c r="AA148" s="8"/>
       <c r="AB148" s="8"/>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -10057,7 +10054,7 @@
       <c r="AA149" s="8"/>
       <c r="AB149" s="8"/>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -10087,7 +10084,7 @@
       <c r="AA150" s="8"/>
       <c r="AB150" s="8"/>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -10117,7 +10114,7 @@
       <c r="AA151" s="8"/>
       <c r="AB151" s="8"/>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -10147,7 +10144,7 @@
       <c r="AA152" s="8"/>
       <c r="AB152" s="8"/>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -10177,7 +10174,7 @@
       <c r="AA153" s="8"/>
       <c r="AB153" s="8"/>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -10207,7 +10204,7 @@
       <c r="AA154" s="8"/>
       <c r="AB154" s="8"/>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -10237,7 +10234,7 @@
       <c r="AA155" s="8"/>
       <c r="AB155" s="8"/>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -10267,7 +10264,7 @@
       <c r="AA156" s="8"/>
       <c r="AB156" s="8"/>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -10297,7 +10294,7 @@
       <c r="AA157" s="8"/>
       <c r="AB157" s="8"/>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -10327,7 +10324,7 @@
       <c r="AA158" s="8"/>
       <c r="AB158" s="8"/>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -10357,7 +10354,7 @@
       <c r="AA159" s="8"/>
       <c r="AB159" s="8"/>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -10387,7 +10384,7 @@
       <c r="AA160" s="8"/>
       <c r="AB160" s="8"/>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -10417,7 +10414,7 @@
       <c r="AA161" s="8"/>
       <c r="AB161" s="8"/>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -10447,7 +10444,7 @@
       <c r="AA162" s="8"/>
       <c r="AB162" s="8"/>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -10477,7 +10474,7 @@
       <c r="AA163" s="8"/>
       <c r="AB163" s="8"/>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -10507,7 +10504,7 @@
       <c r="AA164" s="8"/>
       <c r="AB164" s="8"/>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -10537,7 +10534,7 @@
       <c r="AA165" s="8"/>
       <c r="AB165" s="8"/>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -10567,7 +10564,7 @@
       <c r="AA166" s="8"/>
       <c r="AB166" s="8"/>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -10597,7 +10594,7 @@
       <c r="AA167" s="8"/>
       <c r="AB167" s="8"/>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -10627,7 +10624,7 @@
       <c r="AA168" s="8"/>
       <c r="AB168" s="8"/>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -10657,7 +10654,7 @@
       <c r="AA169" s="8"/>
       <c r="AB169" s="8"/>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -10687,7 +10684,7 @@
       <c r="AA170" s="8"/>
       <c r="AB170" s="8"/>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -10717,7 +10714,7 @@
       <c r="AA171" s="8"/>
       <c r="AB171" s="8"/>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -10747,7 +10744,7 @@
       <c r="AA172" s="8"/>
       <c r="AB172" s="8"/>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -10777,7 +10774,7 @@
       <c r="AA173" s="8"/>
       <c r="AB173" s="8"/>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -10807,7 +10804,7 @@
       <c r="AA174" s="8"/>
       <c r="AB174" s="8"/>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -10837,7 +10834,7 @@
       <c r="AA175" s="8"/>
       <c r="AB175" s="8"/>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -10867,7 +10864,7 @@
       <c r="AA176" s="8"/>
       <c r="AB176" s="8"/>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -10897,7 +10894,7 @@
       <c r="AA177" s="8"/>
       <c r="AB177" s="8"/>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -10927,7 +10924,7 @@
       <c r="AA178" s="8"/>
       <c r="AB178" s="8"/>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -10957,7 +10954,7 @@
       <c r="AA179" s="8"/>
       <c r="AB179" s="8"/>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -10987,7 +10984,7 @@
       <c r="AA180" s="8"/>
       <c r="AB180" s="8"/>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -11017,7 +11014,7 @@
       <c r="AA181" s="8"/>
       <c r="AB181" s="8"/>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -11047,7 +11044,7 @@
       <c r="AA182" s="8"/>
       <c r="AB182" s="8"/>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -11077,7 +11074,7 @@
       <c r="AA183" s="8"/>
       <c r="AB183" s="8"/>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -11107,7 +11104,7 @@
       <c r="AA184" s="8"/>
       <c r="AB184" s="8"/>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -11137,7 +11134,7 @@
       <c r="AA185" s="8"/>
       <c r="AB185" s="8"/>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>

--- a/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
+++ b/krilov/files/9/9 варианты 6, 8, 10, 12, 14, 16, 18, 20.xlsx
@@ -349,7 +349,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -359,8 +359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,7 +368,10 @@
     <col min="1" max="16" width="4.85546875" customWidth="1"/>
     <col min="17" max="25" width="5.85546875" customWidth="1"/>
     <col min="26" max="26" width="8.42578125" customWidth="1"/>
-    <col min="27" max="42" width="5.28515625" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
+    <col min="30" max="42" width="5.28515625" customWidth="1"/>
     <col min="43" max="49" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -548,16 +551,16 @@
         <v>19.899999999999999</v>
       </c>
       <c r="AA2" s="3">
-        <f>MIN(B2:Y92)</f>
-        <v>0.3</v>
+        <f>COUNTIF(B2:Y92,"&gt;5,9")</f>
+        <v>1619</v>
       </c>
       <c r="AB2" s="3">
-        <f>SMALL(B2:Y92,2)</f>
-        <v>1</v>
+        <f>COUNTIF(B2:X92,"&lt;3,1")</f>
+        <v>228</v>
       </c>
       <c r="AC2" s="3">
         <f>AA2-AB2</f>
-        <v>-0.7</v>
+        <v>1391</v>
       </c>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
